--- a/会计/Partnership Account (1) - Financial Statement/UEB 2016 Q2.xlsx
+++ b/会计/Partnership Account (1) - Financial Statement/UEB 2016 Q2.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Partnership Account (1) - Financial Statement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB69CD7-9B01-8B42-92E3-E50BEC932479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48CEB83-F96C-2E4D-A438-8723CA0281F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{BB0B710C-D5DC-5D4E-923D-CB3A5C17A3ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="General Ledger" sheetId="2" r:id="rId1"/>
+    <sheet name="Income Statement" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Ang And Bu</t>
   </si>
@@ -62,24 +60,9 @@
     <t xml:space="preserve">          Carriange Outwards</t>
   </si>
   <si>
-    <t xml:space="preserve">          Wages And Salaries</t>
-  </si>
-  <si>
     <t xml:space="preserve">          General Expenses</t>
   </si>
   <si>
-    <t xml:space="preserve">          Rent and Rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Insurance Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Depreciation Of Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Depreciation of Furniture And Fittings</t>
-  </si>
-  <si>
     <t>Net Profit</t>
   </si>
   <si>
@@ -119,9 +102,6 @@
     <t>- Interest on Drawings</t>
   </si>
   <si>
-    <t>- Partners' Salaries</t>
-  </si>
-  <si>
     <t>- Interest on Capital</t>
   </si>
   <si>
@@ -134,124 +114,103 @@
     <t>Bu</t>
   </si>
   <si>
-    <t>Statement Of Financial Position</t>
-  </si>
-  <si>
-    <t>As At 31 December 2015</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Accumulated Depreciation</t>
-  </si>
-  <si>
-    <t>Carrying Amount</t>
-  </si>
-  <si>
-    <t>Non-current Assets</t>
-  </si>
-  <si>
-    <t>Premises</t>
-  </si>
-  <si>
-    <t>Motor Vehicles</t>
-  </si>
-  <si>
-    <t>Furniture And Fittings</t>
-  </si>
-  <si>
-    <t>Current Assets</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>Accounts Receivable</t>
-  </si>
-  <si>
-    <t>Less: Allowance for Doubtful Debts</t>
-  </si>
-  <si>
-    <t>Rental Deposit</t>
-  </si>
-  <si>
-    <t>Insurance Prepaid</t>
-  </si>
-  <si>
-    <t>Cash In Hand</t>
-  </si>
-  <si>
-    <t>Cash At Bank</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Non-current Liabilities</t>
-  </si>
-  <si>
-    <t>Current Liabilities</t>
-  </si>
-  <si>
-    <t>Loan from Bu</t>
-  </si>
-  <si>
-    <t>Accounts Payable</t>
-  </si>
-  <si>
-    <t>Accrued Wages And Salaries</t>
-  </si>
-  <si>
-    <t>Total Liabilities</t>
-  </si>
-  <si>
     <t>- Interest on Loan from Partners</t>
   </si>
   <si>
     <t>Profit and Loss Appropriations</t>
   </si>
   <si>
-    <t xml:space="preserve">          Interest on Loan from Partners</t>
-  </si>
-  <si>
-    <t>Gain on Revaluation of Premises</t>
-  </si>
-  <si>
-    <t>Add: Interest on Drawings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          - Bu</t>
-  </si>
-  <si>
-    <t>Less: Appropriations</t>
-  </si>
-  <si>
     <t xml:space="preserve">          Partners' Salaries</t>
   </si>
   <si>
     <t xml:space="preserve">          Interest on Capital</t>
   </si>
   <si>
-    <t xml:space="preserve">          - Ang</t>
-  </si>
-  <si>
     <t>Balance of Profit Shared</t>
   </si>
   <si>
-    <t>- Ang</t>
-  </si>
-  <si>
-    <t>- Bu</t>
-  </si>
-  <si>
-    <t>Owners' Equity</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>Current</t>
+    <t>- Partners' Salaries (1,500 x 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Wages And Salaries (3,6000 + 3,600)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Rent and Rates (20,600 - 1,200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Insurance Expenses (1,700 x 9/12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Interest on Loan from Partners (30,000 x 8% x 1/12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Depreciation Of Motor Vehicles (30,000 x 10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Depreciation of Furniture And Fittings [(28,000 - 7,000) x 5%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - Bu (3,000 x 4% x 4/12)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Less:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Appropriations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Add:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Interest on Drawings</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">          - Bu (1,500 x 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - Ang (50,000 x 6% + 20,000 x 6% x 1/12 + 4,000 x 6% x 1/12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - Bu (70,000 x 6% + 30,000 x 6% x 11/12 + 4,000 x 6% x 1/12)</t>
+  </si>
+  <si>
+    <t>- Ang (4,270 x 1/2)</t>
+  </si>
+  <si>
+    <t>- Bu (4,270 x 1/2)</t>
+  </si>
+  <si>
+    <t>Gain on Revaluation of Premises [(123,000 - 115,000) x 1/2]</t>
   </si>
 </sst>
 </file>
@@ -260,9 +219,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="00"/>
+    <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +250,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -522,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -591,6 +557,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,51 +603,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,676 +918,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6194F-1C7A-5F45-BB2E-A79AE8D4025E}">
-  <dimension ref="A1:D89"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="164" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="40.6640625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>107920</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>1950</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
-        <f>36000+3600</f>
-        <v>39600</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <v>9200</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
-        <f>20600-1200</f>
-        <v>19400</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
-        <v>1275</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
-        <v>175</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="7">
-        <v>2100</v>
-      </c>
-      <c r="D15" s="7">
-        <f>-SUM(C8:C15)</f>
-        <v>-76700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
-        <f>D6+D15</f>
-        <v>31220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <f>D16+D18</f>
-        <v>31250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
-        <v>18000</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3120</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="7">
-        <v>5870</v>
-      </c>
-      <c r="C25" s="7">
-        <f>B24+B25</f>
-        <v>8990</v>
-      </c>
-      <c r="D25" s="7">
-        <f>-C22-C25</f>
-        <v>-26990</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="39">
-        <f>D19+D25</f>
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4">
-        <f>D26/2</f>
-        <v>2130</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="7">
-        <f>C28</f>
-        <v>2130</v>
-      </c>
-      <c r="D29" s="42">
-        <f>D26</f>
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99856E4B-84A3-FE44-885C-6D276600FEA0}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="6" max="6" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="A1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1644,7 +995,7 @@
       <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="13">
@@ -1654,7 +1005,7 @@
       <c r="G5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1663,39 +1014,39 @@
         <v>37226</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="31">
+        <v>13</v>
+      </c>
+      <c r="D6" s="26">
         <v>30000</v>
       </c>
       <c r="E6" s="14">
         <v>36892</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G6" s="16">
         <v>50000</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="29">
         <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40">
+      <c r="A7" s="11">
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="15">
         <f>SUM(G6:G8)</f>
         <v>74000</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="26">
         <f>SUM(H6:H8)-D6</f>
         <v>74000</v>
       </c>
@@ -1703,30 +1054,30 @@
         <v>37226</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G7" s="16">
         <v>20000</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>18</v>
+      <c r="H7" s="26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="1"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="41">
+      <c r="D8" s="27"/>
+      <c r="E8" s="33">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G8" s="17">
         <v>4000</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="31">
         <v>4000</v>
       </c>
     </row>
@@ -1736,7 +1087,7 @@
       <c r="C9" s="18">
         <v>74000</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="28">
         <v>104000</v>
       </c>
       <c r="E9" s="11"/>
@@ -1744,7 +1095,7 @@
       <c r="G9" s="18">
         <v>74000</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="28">
         <v>104000</v>
       </c>
     </row>
@@ -1752,29 +1103,29 @@
       <c r="A10" s="11"/>
       <c r="B10" s="1"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="34"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="13">
         <v>2016</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="34"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="1"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="34"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="14">
         <v>36892</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G11" s="16">
         <v>74000</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="29">
         <v>74000</v>
       </c>
     </row>
@@ -1782,11 +1133,11 @@
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="35"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="35"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -1799,33 +1150,33 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="A14" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
       <c r="G15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1836,7 +1187,7 @@
       <c r="C16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="13">
@@ -1846,7 +1197,7 @@
       <c r="G16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1855,24 +1206,24 @@
         <v>36892</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" s="15">
         <v>800</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>18</v>
+      <c r="D17" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="E17" s="14">
         <v>36892</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="34">
+        <v>13</v>
+      </c>
+      <c r="H17" s="29">
         <v>2600</v>
       </c>
     </row>
@@ -1881,84 +1232,84 @@
         <v>37135</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="34">
+        <v>13</v>
+      </c>
+      <c r="D18" s="29">
         <v>3000</v>
       </c>
       <c r="E18" s="14">
         <v>11658</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>37256</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C19" s="16"/>
-      <c r="D19" s="34"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="11"/>
       <c r="F19" s="22" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="31">
+        <v>13</v>
+      </c>
+      <c r="H19" s="26">
         <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="34">
+        <v>13</v>
+      </c>
+      <c r="D20" s="29">
         <v>30</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="22" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21" s="16">
         <f>G22+G23-C17</f>
-        <v>4450</v>
-      </c>
-      <c r="D21" s="34">
+        <v>4980</v>
+      </c>
+      <c r="D21" s="29">
         <f>SUM(H17:H23)-D18-D20</f>
-        <v>25745</v>
+        <v>26275</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="31">
+        <v>13</v>
+      </c>
+      <c r="H21" s="26">
         <v>18000</v>
       </c>
     </row>
@@ -1966,15 +1317,15 @@
       <c r="A22" s="11"/>
       <c r="B22" s="1"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="34"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="13"/>
       <c r="F22" s="22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G22" s="16">
         <v>3120</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="29">
         <f>4200+1670</f>
         <v>5870</v>
       </c>
@@ -1983,16 +1334,16 @@
       <c r="A23" s="11"/>
       <c r="B23" s="1"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="13"/>
       <c r="F23" s="22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G23" s="17">
-        <v>2130</v>
-      </c>
-      <c r="H23" s="32">
-        <v>2130</v>
+        <v>2660</v>
+      </c>
+      <c r="H23" s="27">
+        <v>2660</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2000,62 +1351,64 @@
       <c r="B24" s="1"/>
       <c r="C24" s="18">
         <f>C17+C21</f>
-        <v>5250</v>
-      </c>
-      <c r="D24" s="33">
+        <v>5780</v>
+      </c>
+      <c r="D24" s="28">
         <f>SUM(D17:D21)</f>
-        <v>28775</v>
+        <v>29305</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="22"/>
       <c r="G24" s="18">
         <f>G22+G23</f>
-        <v>5250</v>
-      </c>
-      <c r="H24" s="33">
+        <v>5780</v>
+      </c>
+      <c r="H24" s="28">
         <f>SUM(H17:H23)</f>
-        <v>28775</v>
+        <v>29305</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="1"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="43">
+      <c r="D25" s="29"/>
+      <c r="E25" s="13">
         <v>2015</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="34"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="34"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="14">
         <v>36892</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G26" s="16">
-        <v>4450</v>
-      </c>
-      <c r="H26" s="34">
-        <v>25745</v>
+        <f>C21</f>
+        <v>4980</v>
+      </c>
+      <c r="H26" s="29">
+        <f>D21</f>
+        <v>26275</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="35"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="19"/>
       <c r="F27" s="20"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="35"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2133,44 +1486,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A1EA5-92FE-D643-9680-3960704637E8}">
-  <dimension ref="A1:D88"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6194F-1C7A-5F45-BB2E-A79AE8D4025E}">
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="171" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="164" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="12.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="59.83203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2184,20 +1538,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>35</v>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>107920</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2205,160 +1558,137 @@
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="4">
-        <v>123000</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4">
-        <v>123000</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>1950</v>
+      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4">
-        <v>30000</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <v>-6000</v>
-      </c>
-      <c r="D9" s="4">
-        <f>B9+C9</f>
-        <v>24000</v>
-      </c>
+        <f>36000+3600</f>
+        <v>39600</v>
+      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="7">
-        <v>28000</v>
-      </c>
-      <c r="C10" s="7">
-        <v>-9100</v>
-      </c>
-      <c r="D10" s="7">
-        <f>B10+C10</f>
-        <v>18900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39">
-        <f>SUM(B8:B10)</f>
-        <v>181000</v>
-      </c>
-      <c r="C11" s="39">
-        <f>SUM(C9:C10)</f>
-        <v>-15100</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM(D8:D10)</f>
-        <v>165900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>9200</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
+        <f>20600-1200</f>
+        <v>19400</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>1275</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
-        <v>6200</v>
+        <v>175</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4">
-        <v>17500</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>3000</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="7">
-        <v>-420</v>
-      </c>
-      <c r="C15" s="4">
-        <f>B14+B15</f>
-        <v>17080</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="7">
+        <v>1050</v>
+      </c>
+      <c r="D15" s="7">
+        <f>-SUM(C8:C15)</f>
+        <v>-75650</v>
+      </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
+      <c r="A16" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4">
-        <v>1200</v>
-      </c>
-      <c r="D16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <f>D6+D15</f>
+        <v>32270</v>
+      </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4">
-        <v>425</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4">
-        <v>11090</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="7">
-        <v>400</v>
-      </c>
-      <c r="D19" s="7">
-        <f>SUM(C13:C19)</f>
-        <v>36395</v>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <f>D16+D18</f>
+        <v>32310</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>48</v>
+      <c r="A20" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <f>D11+D19</f>
-        <v>202295</v>
-      </c>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>49</v>
+      <c r="A21" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2366,17 +1696,17 @@
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
+      <c r="A23" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2384,188 +1714,162 @@
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4">
-        <v>27000</v>
+        <v>3120</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B25" s="7">
-        <v>3600</v>
+        <v>5870</v>
       </c>
       <c r="C25" s="7">
         <f>B24+B25</f>
-        <v>30600</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>8990</v>
+      </c>
+      <c r="D25" s="7">
+        <f>-C22-C25</f>
+        <v>-26990</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="7">
-        <f>-C22-C25</f>
-        <v>-60600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>48</v>
+      <c r="D26" s="32">
+        <f>D19+D25</f>
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4">
-        <f>D20+D26</f>
-        <v>141695</v>
-      </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>68</v>
+      <c r="A28" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <f>D26/2</f>
+        <v>2660</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
+    <row r="29" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>66</v>
-      </c>
+      <c r="C29" s="7">
+        <f>C28</f>
+        <v>2660</v>
+      </c>
+      <c r="D29" s="34">
+        <f>D26</f>
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
-      <c r="C30" s="4">
-        <v>74000</v>
-      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>67</v>
-      </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="7">
-        <v>74000</v>
-      </c>
-      <c r="D31" s="4">
-        <f>SUM(C30:C31)</f>
-        <v>148000</v>
-      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>66</v>
-      </c>
+    <row r="33" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
-      <c r="C33" s="4">
-        <v>4450</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>67</v>
-      </c>
+    <row r="34" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
-      <c r="C34" s="7">
-        <v>25745</v>
-      </c>
-      <c r="D34" s="7">
-        <f>C33+C34</f>
-        <v>30195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="4">
-        <f>D31+D34</f>
-        <v>178195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2769,6 +2073,11 @@
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2777,20 +2086,5 @@
     <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C11" formula="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7087F4-CAED-6A40-AABC-A134F06622D6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>